--- a/emotions/fer_results.xlsx
+++ b/emotions/fer_results.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9667003027245207</v>
+        <v>0.9866117404737385</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9830682401231401</v>
+        <v>0.993260756868844</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8685054522129571</v>
+        <v>0.7915330339961514</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9465138490926457</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9677734375</v>
+        <v>0.984375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.95702559150169</v>
+        <v>0.9921259842519685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8685054522129571</v>
+        <v>0.7915330339961514</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9981549815498155</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9227733934611049</v>
+        <v>0.9148816234498309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9598358252711815</v>
+        <v>0.9547058823529412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8685054522129571</v>
+        <v>0.7915330339961514</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.8846447669977082</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9635036496350365</v>
+        <v>0.9391727493917275</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9496402877697842</v>
+        <v>0.9110936270653029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8685054522129571</v>
+        <v>0.7915330339961514</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -583,16 +583,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9651702786377709</v>
+        <v>0.943267776096823</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9822764868058291</v>
+        <v>0.9708057609964967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8685054522129571</v>
+        <v>0.7915330339961514</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>0.9647532729103726</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8470173187940988</v>
+        <v>0.77325208466966</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
         <v>0.9173076923076924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8470173187940988</v>
+        <v>0.77325208466966</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>0.9687137891077636</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8470173187940988</v>
+        <v>0.77325208466966</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>0.9872689938398357</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8470173187940988</v>
+        <v>0.77325208466966</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         <v>0.9900754267566495</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8470173187940988</v>
+        <v>0.77325208466966</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>0.9123809523809523</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8596856959589481</v>
+        <v>0.7859204618345093</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>0.8646423057128152</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8596856959589481</v>
+        <v>0.7859204618345093</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>0.9595307917888563</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8596856959589481</v>
+        <v>0.7859204618345093</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>0.9727810650887574</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8596856959589481</v>
+        <v>0.7859204618345093</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>0.9959742351046699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8596856959589481</v>
+        <v>0.7859204618345093</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>0.9921094160967912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8760423348300193</v>
+        <v>0.8022771007055804</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>0.9678638941398866</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8760423348300193</v>
+        <v>0.8022771007055804</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>0.9813379270743612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8760423348300193</v>
+        <v>0.8022771007055804</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>0.9727722772277229</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8760423348300193</v>
+        <v>0.8022771007055804</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         <v>0.978806907378336</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760423348300193</v>
+        <v>0.8022771007055804</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>0.9808510638297873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8795702373316229</v>
+        <v>0.8058050032071841</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>0.9658536585365854</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8795702373316229</v>
+        <v>0.8058050032071841</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>0.9627079747561675</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8795702373316229</v>
+        <v>0.8058050032071841</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>0.961028838659392</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8795702373316229</v>
+        <v>0.8058050032071841</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>0.9983935742971887</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8795702373316229</v>
+        <v>0.8058050032071841</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>

--- a/emotions/fer_results.xlsx
+++ b/emotions/fer_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28BC8E7-B9E9-40A5-A25E-A992B00E8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185D53D-9A77-44EF-AC60-88B1EB851370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -470,9 +470,9 @@
       <selection activeCell="G26" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -584,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -630,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -653,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -745,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -768,7 +768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -791,7 +791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -906,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -929,7 +929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -952,7 +952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -975,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -998,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1077,17 +1077,17 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="3"/>
-    <col min="3" max="6" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="2" width="8.77734375" style="3"/>
+    <col min="3" max="6" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>99.326075686884394</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>99.212598425196859</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>95.470588235294116</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>91.109362706530291</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>97.080576099649676</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>96.47532729103726</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>91.730769230769241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>96.871378910776357</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>98.726899383983564</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>99.007542675664951</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>91.238095238095227</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>86.464230571281519</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>95.953079178885631</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>97.278106508875737</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>99.597423510466982</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>99.210941609679111</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>96.786389413988658</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>98.133792707436115</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>97.277227722772281</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>97.880690737833604</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>98.085106382978722</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>96.585365853658544</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>96.27079747561676</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>96.102883865939205</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>

--- a/emotions/fer_results.xlsx
+++ b/emotions/fer_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\my-study-python\emotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185D53D-9A77-44EF-AC60-88B1EB851370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA737A-F3DC-4818-B32A-05073C4E9DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -162,6 +162,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,9 +471,9 @@
       <selection activeCell="G26" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -515,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -538,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -561,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -584,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -607,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -630,7 +631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -653,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -676,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -699,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -722,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -745,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -768,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -791,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -814,7 +815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -837,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -860,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -883,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -906,7 +907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -929,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -952,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -975,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -998,7 +999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1074,20 +1075,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846873FA-E91F-4417-8234-F773A243DE51}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.77734375" style="3"/>
-    <col min="3" max="6" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="2" width="8.81640625" style="3"/>
+    <col min="3" max="6" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="3"/>
+    <col min="9" max="9" width="19.26953125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1166,8 +1169,12 @@
         <f t="shared" si="0"/>
         <v>99.326075686884394</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q2" s="6">
+        <f>$K$26-K2</f>
+        <v>1.4271969211032598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1208,8 +1215,12 @@
         <f t="shared" ref="N3:N26" si="4">F3*100</f>
         <v>99.212598425196859</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q26" si="5">$K$26-K3</f>
+        <v>1.4271969211032598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1261,12 @@
         <f t="shared" si="4"/>
         <v>95.470588235294116</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q4" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4271969211032598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1292,8 +1307,12 @@
         <f t="shared" si="4"/>
         <v>91.109362706530291</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q5" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4271969211032598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1334,8 +1353,12 @@
         <f t="shared" si="4"/>
         <v>97.080576099649676</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q6" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4271969211032598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1376,8 +1399,12 @@
         <f t="shared" si="4"/>
         <v>96.47532729103726</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q7" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2552918537523965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1418,8 +1445,12 @@
         <f t="shared" si="4"/>
         <v>91.730769230769241</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q8" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2552918537523965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1460,8 +1491,12 @@
         <f t="shared" si="4"/>
         <v>96.871378910776357</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q9" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2552918537523965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1502,8 +1537,12 @@
         <f t="shared" si="4"/>
         <v>98.726899383983564</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q10" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2552918537523965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1544,8 +1583,12 @@
         <f t="shared" si="4"/>
         <v>99.007542675664951</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q11" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2552918537523965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1586,8 +1629,12 @@
         <f t="shared" si="4"/>
         <v>91.238095238095227</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q12" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9884541372674818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1628,8 +1675,12 @@
         <f t="shared" si="4"/>
         <v>86.464230571281519</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q13" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9884541372674818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1670,8 +1721,12 @@
         <f t="shared" si="4"/>
         <v>95.953079178885631</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q14" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9884541372674818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1712,8 +1767,12 @@
         <f t="shared" si="4"/>
         <v>97.278106508875737</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q15" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9884541372674818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1754,8 +1813,12 @@
         <f t="shared" si="4"/>
         <v>99.597423510466982</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q16" s="6">
+        <f t="shared" si="5"/>
+        <v>1.9884541372674818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1796,8 +1859,12 @@
         <f t="shared" si="4"/>
         <v>99.210941609679111</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q17" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35279025016035348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1838,8 +1905,12 @@
         <f t="shared" si="4"/>
         <v>96.786389413988658</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q18" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35279025016035348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1880,8 +1951,12 @@
         <f t="shared" si="4"/>
         <v>98.133792707436115</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35279025016035348</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1922,8 +1997,12 @@
         <f t="shared" si="4"/>
         <v>97.277227722772281</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q20" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35279025016035348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1964,8 +2043,12 @@
         <f t="shared" si="4"/>
         <v>97.880690737833604</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q21" s="6">
+        <f t="shared" si="5"/>
+        <v>0.35279025016035348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2006,8 +2089,12 @@
         <f t="shared" si="4"/>
         <v>98.085106382978722</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q22" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2135,12 @@
         <f t="shared" si="4"/>
         <v>96.585365853658544</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q23" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -2090,8 +2181,12 @@
         <f t="shared" si="4"/>
         <v>96.27079747561676</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q24" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2132,8 +2227,12 @@
         <f t="shared" si="4"/>
         <v>96.102883865939205</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q25" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2173,6 +2272,10 @@
       <c r="N26" s="5">
         <f t="shared" si="4"/>
         <v>99.839357429718874</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
